--- a/plan/Skillwork.xlsx
+++ b/plan/Skillwork.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Documents/gamebusdriver/plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="740" windowWidth="30440" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
   <si>
     <t>스킬 테이블 구조 정리중</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,7 +161,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skCooltime</t>
+    <t>skMoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 타이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skMoveTyming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skMoveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 이동시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuffTic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 초마다 효과를 적용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuffIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skDamageTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 타이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skEffectTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 타이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 타입(본인, 지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skSoungTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 타이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skChildEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skActionEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리공격 피격 이펙트 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuff Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">skObjectSpeed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사형 오브젝트 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skChildType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 형식자 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuffEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuffEffectTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skBuffEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectPara0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectPara1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectPara2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectPara3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectPara4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 파라미터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 파라미터2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 파라미터3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 파라미터4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 파라미터5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectRangeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 효과타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectEffectTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 타입(대상, 지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skConsumType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 재화 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skActionBuffParentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션버프 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skActionBuffChildD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 효과 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skChildBuffEffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skParentBuffEffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 효과 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skChildSkillEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 형식자 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static, dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skSkillLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 / 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 형태(근거리, 원거리 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX / 10000(애니)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local / world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skObjectChildID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입 정의(근거리, 원거리 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skActionChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMagicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMagicDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMagicAttackPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skUpgradeConsum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 소모 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 저항 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectCriticalDodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectPenetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통률 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skHpRecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP회복 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectSpecial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특화 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectCritical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectSmite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectAttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skHpRecoverPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 회피 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 영향량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectAttackPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectHpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP회복 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectSpecialPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특화 영향  비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectAttackSpeedPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMoveSpeedPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectCriticalPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectSmitePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectResistPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 저항 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectCriticalDodgePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 회피 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectPenetratePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통률 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectDefPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skAffectMagicDefPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 영향 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skCooltimePer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,527 +773,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skMoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 타이밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skMoveTyming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skMoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skMoveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 이동시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuffTic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇 초마다 효과를 적용?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuffIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 아이콘 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skDamageTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 타이밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skEffectTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 타이밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 타입(본인, 지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skSoungTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 타이밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skChildEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과 테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션 테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skActionEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리공격 피격 이펙트 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuff Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">skObjectSpeed </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사형 오브젝트 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skChildType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 형식자 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectDefPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuffEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuffEffectTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skBuffEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectPara0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectPara1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectPara2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectPara3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectPara4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 파라미터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 파라미터2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 파라미터3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 파라미터4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 파라미터5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectRangeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 효과타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectEffectTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 타입(대상, 지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skConsumType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 재화량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 재화 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skActionBuffParentID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션버프 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skActionBuffChildD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 효과 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skChildBuffEffectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skParentBuffEffectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 효과 테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skChildSkillEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 형식자 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static, dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skSkillLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 / 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 형태(근거리, 원거리 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX / 10000(애니)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local / world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skObjectChildID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 타입 정의(근거리, 원거리 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skActionChild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectMagicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격력 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectMagicDef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 방어력 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectAttackPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectMagicAttackPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 영향 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skUpgradeConsum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 소모 재화량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 저항 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectCriticalDodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타 회피 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectPenetrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관통률 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skHpRecover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP회복 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectSpecial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특화 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectCritical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectSmite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강타 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectAttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectMoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 영향량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skAffectResistPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 영향 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격력 영향 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">skAffectHpPer </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 영향 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skHpRecoverPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP회복 영향 비율</t>
+    <t>skGetFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발열 획득량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y95"/>
+  <dimension ref="B2:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1355,7 @@
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
@@ -1636,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>20</v>
@@ -1649,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
@@ -1661,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>16</v>
@@ -1670,41 +1758,41 @@
         <v>18</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y40" s="26"/>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C41" s="9"/>
       <c r="D41" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M41" s="4">
         <v>1111</v>
@@ -1739,28 +1827,28 @@
     <row r="43" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
@@ -1777,28 +1865,28 @@
     <row r="44" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C44" s="9"/>
       <c r="D44" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
@@ -1818,25 +1906,25 @@
         <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
@@ -1881,25 +1969,25 @@
         <v>19</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="L48" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
@@ -1908,37 +1996,37 @@
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="18"/>
       <c r="D50" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -1968,67 +2056,67 @@
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="18"/>
       <c r="D52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="18"/>
       <c r="D53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="J53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
@@ -2042,748 +2130,847 @@
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="18"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
       <c r="M55" s="28"/>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="18"/>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="18"/>
-      <c r="D57" s="4" t="s">
-        <v>146</v>
+      <c r="D57" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>140</v>
+        <v>167</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="18"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="60" spans="3:15" ht="23" x14ac:dyDescent="0.3">
-      <c r="C60" s="12" t="s">
+      <c r="I58" s="4"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="18"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="28"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="18"/>
+      <c r="D60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="18"/>
+      <c r="D61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="18"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="64" spans="3:15" ht="23" x14ac:dyDescent="0.3">
+      <c r="C64" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="D61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O61" s="26"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="13"/>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="26"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="13"/>
-      <c r="D63" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="O63" s="26"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="13"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="26"/>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C65" s="13"/>
       <c r="D65" s="2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O65" s="26"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C66" s="13"/>
       <c r="D66" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O66" s="26"/>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="13"/>
       <c r="D67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
       <c r="O67" s="26"/>
     </row>
-    <row r="69" spans="3:15" ht="23" x14ac:dyDescent="0.3">
-      <c r="C69" s="10" t="s">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="13"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="26"/>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C69" s="13"/>
+      <c r="D69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="26"/>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C70" s="13"/>
+      <c r="D70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="26"/>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C71" s="13"/>
+      <c r="D71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="26"/>
+    </row>
+    <row r="73" spans="3:15" ht="23" x14ac:dyDescent="0.3">
+      <c r="C73" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-    </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C70" s="11"/>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O70" s="26"/>
-    </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C71" s="11"/>
-      <c r="D71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O71" s="26"/>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C72" s="11"/>
-      <c r="D72" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="O72" s="26"/>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C73" s="11"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
       <c r="O73" s="26"/>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="11"/>
       <c r="D74" s="2" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="O74" s="26"/>
     </row>
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="11"/>
       <c r="D75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="O75" s="26"/>
     </row>
     <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76" s="11"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="D76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
       <c r="F76" s="27"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
       <c r="O76" s="26"/>
     </row>
-    <row r="78" spans="3:15" ht="23" x14ac:dyDescent="0.3">
-      <c r="C78" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="11"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="26"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="26"/>
     </row>
     <row r="79" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C79" s="24"/>
-      <c r="D79" s="2" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="26"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="26"/>
+    </row>
+    <row r="82" spans="3:14" ht="23" x14ac:dyDescent="0.3">
+      <c r="C82" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="24"/>
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F83" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="26"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="24"/>
+      <c r="D84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="26"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="24"/>
+      <c r="D85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="26"/>
+    </row>
+    <row r="87" spans="3:14" ht="23" x14ac:dyDescent="0.3">
+      <c r="C87" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="26"/>
-    </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C80" s="24"/>
-      <c r="D80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="26"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="24"/>
-      <c r="D81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="26"/>
-    </row>
-    <row r="83" spans="3:14" ht="23" x14ac:dyDescent="0.3">
-      <c r="C83" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C84" s="15"/>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C85" s="15"/>
-      <c r="D85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C86" s="15"/>
-      <c r="D86" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="15"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C88" s="15"/>
       <c r="D88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89" s="15"/>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M89" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C90" s="15"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-    </row>
-    <row r="92" spans="3:14" ht="23" x14ac:dyDescent="0.3">
-      <c r="C92" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-    </row>
-    <row r="93" spans="3:14" ht="23" x14ac:dyDescent="0.3">
-      <c r="C93" s="16"/>
-      <c r="D93" s="2" t="s">
+      <c r="D90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C91" s="15"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C92" s="15"/>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="15"/>
+      <c r="D93" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C94" s="15"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+    </row>
+    <row r="96" spans="3:14" ht="23" x14ac:dyDescent="0.3">
+      <c r="C96" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+    </row>
+    <row r="97" spans="3:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C97" s="16"/>
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C98" s="17"/>
+      <c r="D98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H98" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="I98" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="J98" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L93" s="26"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C94" s="17"/>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L94" s="26"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C95" s="17"/>
-      <c r="D95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="L98" s="26"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C99" s="17"/>
+      <c r="D99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="4">
         <v>0</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan/Skillwork.xlsx
+++ b/plan/Skillwork.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2679,13 +2679,13 @@
       <c r="F83" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
       <c r="N83" s="26"/>
     </row>
     <row r="84" spans="3:14" x14ac:dyDescent="0.25">
@@ -2699,13 +2699,13 @@
       <c r="F84" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="3:14" x14ac:dyDescent="0.25">
@@ -2717,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
       <c r="N85" s="26"/>
     </row>
     <row r="87" spans="3:14" ht="23" x14ac:dyDescent="0.3">
